--- a/pred_ohlcv/54_21/2019-10-29 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 AE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-7135.780023703704</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9497.345923703702</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9596.345923703702</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-9736.345923703702</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14233.3114237037</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16753.6043237037</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6813.318223703705</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-5587.613854764311</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-15904.59865476431</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-15030.77065476431</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15030.77065476431</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-17873.75985476431</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 AE ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 AE ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-7602.807623703704</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-7521.098223703704</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9305.780023703703</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9407.565023703703</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-9508.312523703702</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-9497.345923703702</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-9596.345923703702</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11718.5162237037</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-14233.3114237037</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-16553.6043237037</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-16753.6043237037</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-6813.318223703705</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-15904.59865476431</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-12953.07855476431</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9937.009954764311</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-10997.56015476431</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-10991.43835476431</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-11785.93025476431</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-12366.93025476431</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-13910.26505476431</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-13910.26505476431</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-15347.84245476431</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15035.77065476431</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-15010.77065476431</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-17473.99745476431</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-17412.99745476431</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-17680.09045476431</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
